--- a/Reportes/Reporte_Data_80_Salidas_composición_zonas_homogéneas.xlsx_grasp.xlsx
+++ b/Reportes/Reporte_Data_80_Salidas_composición_zonas_homogéneas.xlsx_grasp.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="173">
   <si>
     <t>Instancia</t>
   </si>
@@ -30,508 +30,508 @@
     <t>Data_80_Salidas_composición_zonas_homogéneas.xlsx</t>
   </si>
   <si>
+    <t>Z1</t>
+  </si>
+  <si>
+    <t>Z3</t>
+  </si>
+  <si>
+    <t>373,6</t>
+  </si>
+  <si>
+    <t>Pedido</t>
+  </si>
+  <si>
+    <t>Salida</t>
+  </si>
+  <si>
+    <t>Pedido_3</t>
+  </si>
+  <si>
+    <t>Pedido_5</t>
+  </si>
+  <si>
+    <t>Pedido_34</t>
+  </si>
+  <si>
+    <t>Pedido_74</t>
+  </si>
+  <si>
+    <t>Pedido_20</t>
+  </si>
+  <si>
+    <t>Pedido_59</t>
+  </si>
+  <si>
+    <t>Pedido_26</t>
+  </si>
+  <si>
+    <t>Pedido_33</t>
+  </si>
+  <si>
+    <t>Pedido_12</t>
+  </si>
+  <si>
+    <t>Pedido_2</t>
+  </si>
+  <si>
+    <t>Pedido_10</t>
+  </si>
+  <si>
+    <t>Pedido_45</t>
+  </si>
+  <si>
+    <t>Pedido_13</t>
+  </si>
+  <si>
+    <t>Pedido_52</t>
+  </si>
+  <si>
+    <t>Pedido_37</t>
+  </si>
+  <si>
+    <t>Pedido_28</t>
+  </si>
+  <si>
+    <t>Pedido_64</t>
+  </si>
+  <si>
+    <t>Pedido_23</t>
+  </si>
+  <si>
+    <t>Pedido_11</t>
+  </si>
+  <si>
+    <t>Pedido_39</t>
+  </si>
+  <si>
+    <t>Pedido_71</t>
+  </si>
+  <si>
+    <t>Pedido_36</t>
+  </si>
+  <si>
+    <t>Pedido_43</t>
+  </si>
+  <si>
+    <t>Pedido_35</t>
+  </si>
+  <si>
+    <t>Pedido_4</t>
+  </si>
+  <si>
+    <t>Pedido_31</t>
+  </si>
+  <si>
+    <t>Pedido_32</t>
+  </si>
+  <si>
+    <t>Pedido_7</t>
+  </si>
+  <si>
+    <t>Pedido_56</t>
+  </si>
+  <si>
+    <t>Pedido_8</t>
+  </si>
+  <si>
+    <t>Pedido_29</t>
+  </si>
+  <si>
+    <t>Pedido_49</t>
+  </si>
+  <si>
+    <t>Pedido_46</t>
+  </si>
+  <si>
+    <t>Pedido_15</t>
+  </si>
+  <si>
+    <t>Pedido_9</t>
+  </si>
+  <si>
+    <t>Pedido_21</t>
+  </si>
+  <si>
+    <t>Pedido_6</t>
+  </si>
+  <si>
+    <t>Pedido_53</t>
+  </si>
+  <si>
+    <t>Pedido_24</t>
+  </si>
+  <si>
+    <t>Pedido_17</t>
+  </si>
+  <si>
+    <t>Pedido_19</t>
+  </si>
+  <si>
+    <t>Pedido_27</t>
+  </si>
+  <si>
+    <t>Pedido_25</t>
+  </si>
+  <si>
+    <t>Pedido_18</t>
+  </si>
+  <si>
+    <t>Pedido_55</t>
+  </si>
+  <si>
+    <t>Pedido_76</t>
+  </si>
+  <si>
+    <t>Pedido_14</t>
+  </si>
+  <si>
+    <t>Pedido_47</t>
+  </si>
+  <si>
+    <t>Pedido_51</t>
+  </si>
+  <si>
+    <t>Pedido_22</t>
+  </si>
+  <si>
+    <t>Pedido_40</t>
+  </si>
+  <si>
+    <t>Pedido_41</t>
+  </si>
+  <si>
+    <t>Pedido_67</t>
+  </si>
+  <si>
+    <t>Pedido_1</t>
+  </si>
+  <si>
+    <t>Pedido_44</t>
+  </si>
+  <si>
+    <t>Pedido_48</t>
+  </si>
+  <si>
+    <t>Pedido_30</t>
+  </si>
+  <si>
+    <t>Pedido_78</t>
+  </si>
+  <si>
+    <t>Pedido_80</t>
+  </si>
+  <si>
+    <t>Pedido_73</t>
+  </si>
+  <si>
+    <t>Pedido_61</t>
+  </si>
+  <si>
+    <t>Pedido_77</t>
+  </si>
+  <si>
+    <t>Pedido_75</t>
+  </si>
+  <si>
+    <t>Pedido_60</t>
+  </si>
+  <si>
+    <t>Pedido_79</t>
+  </si>
+  <si>
+    <t>Pedido_54</t>
+  </si>
+  <si>
+    <t>Pedido_70</t>
+  </si>
+  <si>
+    <t>Pedido_58</t>
+  </si>
+  <si>
+    <t>Pedido_38</t>
+  </si>
+  <si>
+    <t>Pedido_69</t>
+  </si>
+  <si>
+    <t>Pedido_62</t>
+  </si>
+  <si>
+    <t>Pedido_65</t>
+  </si>
+  <si>
+    <t>Pedido_50</t>
+  </si>
+  <si>
+    <t>Pedido_66</t>
+  </si>
+  <si>
+    <t>Pedido_42</t>
+  </si>
+  <si>
+    <t>Pedido_63</t>
+  </si>
+  <si>
+    <t>Pedido_68</t>
+  </si>
+  <si>
+    <t>Pedido_57</t>
+  </si>
+  <si>
+    <t>Pedido_16</t>
+  </si>
+  <si>
+    <t>Pedido_72</t>
+  </si>
+  <si>
+    <t>S061</t>
+  </si>
+  <si>
+    <t>S041</t>
+  </si>
+  <si>
+    <t>S001</t>
+  </si>
+  <si>
+    <t>S021</t>
+  </si>
+  <si>
+    <t>S031</t>
+  </si>
+  <si>
+    <t>S011</t>
+  </si>
+  <si>
+    <t>S051</t>
+  </si>
+  <si>
+    <t>S071</t>
+  </si>
+  <si>
+    <t>S022</t>
+  </si>
+  <si>
+    <t>S062</t>
+  </si>
+  <si>
+    <t>S042</t>
+  </si>
+  <si>
+    <t>S002</t>
+  </si>
+  <si>
+    <t>S032</t>
+  </si>
+  <si>
+    <t>S052</t>
+  </si>
+  <si>
+    <t>S012</t>
+  </si>
+  <si>
+    <t>S072</t>
+  </si>
+  <si>
+    <t>S023</t>
+  </si>
+  <si>
+    <t>S003</t>
+  </si>
+  <si>
+    <t>S043</t>
+  </si>
+  <si>
+    <t>S063</t>
+  </si>
+  <si>
+    <t>S033</t>
+  </si>
+  <si>
+    <t>S073</t>
+  </si>
+  <si>
+    <t>S053</t>
+  </si>
+  <si>
+    <t>S013</t>
+  </si>
+  <si>
+    <t>S024</t>
+  </si>
+  <si>
+    <t>S004</t>
+  </si>
+  <si>
+    <t>S044</t>
+  </si>
+  <si>
+    <t>S064</t>
+  </si>
+  <si>
+    <t>S034</t>
+  </si>
+  <si>
+    <t>S074</t>
+  </si>
+  <si>
+    <t>S014</t>
+  </si>
+  <si>
+    <t>S054</t>
+  </si>
+  <si>
+    <t>S025</t>
+  </si>
+  <si>
+    <t>S065</t>
+  </si>
+  <si>
+    <t>S005</t>
+  </si>
+  <si>
+    <t>S045</t>
+  </si>
+  <si>
+    <t>S015</t>
+  </si>
+  <si>
+    <t>S075</t>
+  </si>
+  <si>
+    <t>S035</t>
+  </si>
+  <si>
+    <t>S055</t>
+  </si>
+  <si>
+    <t>S026</t>
+  </si>
+  <si>
+    <t>S006</t>
+  </si>
+  <si>
+    <t>S046</t>
+  </si>
+  <si>
+    <t>S066</t>
+  </si>
+  <si>
+    <t>S036</t>
+  </si>
+  <si>
+    <t>S076</t>
+  </si>
+  <si>
+    <t>S056</t>
+  </si>
+  <si>
+    <t>S016</t>
+  </si>
+  <si>
+    <t>S027</t>
+  </si>
+  <si>
+    <t>S047</t>
+  </si>
+  <si>
+    <t>S007</t>
+  </si>
+  <si>
+    <t>S067</t>
+  </si>
+  <si>
+    <t>S037</t>
+  </si>
+  <si>
+    <t>S017</t>
+  </si>
+  <si>
+    <t>S057</t>
+  </si>
+  <si>
+    <t>S077</t>
+  </si>
+  <si>
+    <t>S008</t>
+  </si>
+  <si>
+    <t>S068</t>
+  </si>
+  <si>
+    <t>S028</t>
+  </si>
+  <si>
+    <t>S048</t>
+  </si>
+  <si>
+    <t>S058</t>
+  </si>
+  <si>
+    <t>S018</t>
+  </si>
+  <si>
+    <t>S078</t>
+  </si>
+  <si>
+    <t>S038</t>
+  </si>
+  <si>
+    <t>S029</t>
+  </si>
+  <si>
+    <t>S069</t>
+  </si>
+  <si>
+    <t>S009</t>
+  </si>
+  <si>
+    <t>S049</t>
+  </si>
+  <si>
+    <t>S059</t>
+  </si>
+  <si>
+    <t>S019</t>
+  </si>
+  <si>
+    <t>S039</t>
+  </si>
+  <si>
+    <t>S079</t>
+  </si>
+  <si>
+    <t>S030</t>
+  </si>
+  <si>
+    <t>S050</t>
+  </si>
+  <si>
+    <t>S010</t>
+  </si>
+  <si>
+    <t>S070</t>
+  </si>
+  <si>
+    <t>S040</t>
+  </si>
+  <si>
+    <t>S060</t>
+  </si>
+  <si>
+    <t>S020</t>
+  </si>
+  <si>
+    <t>S080</t>
+  </si>
+  <si>
+    <t>Tiempo</t>
+  </si>
+  <si>
+    <t>Z2</t>
+  </si>
+  <si>
     <t>Z4</t>
-  </si>
-  <si>
-    <t>373,6</t>
-  </si>
-  <si>
-    <t>Pedido</t>
-  </si>
-  <si>
-    <t>Salida</t>
-  </si>
-  <si>
-    <t>Pedido_3</t>
-  </si>
-  <si>
-    <t>Pedido_5</t>
-  </si>
-  <si>
-    <t>Pedido_34</t>
-  </si>
-  <si>
-    <t>Pedido_74</t>
-  </si>
-  <si>
-    <t>Pedido_20</t>
-  </si>
-  <si>
-    <t>Pedido_59</t>
-  </si>
-  <si>
-    <t>Pedido_26</t>
-  </si>
-  <si>
-    <t>Pedido_33</t>
-  </si>
-  <si>
-    <t>Pedido_12</t>
-  </si>
-  <si>
-    <t>Pedido_2</t>
-  </si>
-  <si>
-    <t>Pedido_10</t>
-  </si>
-  <si>
-    <t>Pedido_45</t>
-  </si>
-  <si>
-    <t>Pedido_13</t>
-  </si>
-  <si>
-    <t>Pedido_52</t>
-  </si>
-  <si>
-    <t>Pedido_37</t>
-  </si>
-  <si>
-    <t>Pedido_28</t>
-  </si>
-  <si>
-    <t>Pedido_64</t>
-  </si>
-  <si>
-    <t>Pedido_23</t>
-  </si>
-  <si>
-    <t>Pedido_11</t>
-  </si>
-  <si>
-    <t>Pedido_39</t>
-  </si>
-  <si>
-    <t>Pedido_71</t>
-  </si>
-  <si>
-    <t>Pedido_36</t>
-  </si>
-  <si>
-    <t>Pedido_43</t>
-  </si>
-  <si>
-    <t>Pedido_35</t>
-  </si>
-  <si>
-    <t>Pedido_4</t>
-  </si>
-  <si>
-    <t>Pedido_31</t>
-  </si>
-  <si>
-    <t>Pedido_32</t>
-  </si>
-  <si>
-    <t>Pedido_7</t>
-  </si>
-  <si>
-    <t>Pedido_56</t>
-  </si>
-  <si>
-    <t>Pedido_8</t>
-  </si>
-  <si>
-    <t>Pedido_29</t>
-  </si>
-  <si>
-    <t>Pedido_49</t>
-  </si>
-  <si>
-    <t>Pedido_46</t>
-  </si>
-  <si>
-    <t>Pedido_15</t>
-  </si>
-  <si>
-    <t>Pedido_21</t>
-  </si>
-  <si>
-    <t>Pedido_9</t>
-  </si>
-  <si>
-    <t>Pedido_6</t>
-  </si>
-  <si>
-    <t>Pedido_53</t>
-  </si>
-  <si>
-    <t>Pedido_24</t>
-  </si>
-  <si>
-    <t>Pedido_17</t>
-  </si>
-  <si>
-    <t>Pedido_19</t>
-  </si>
-  <si>
-    <t>Pedido_27</t>
-  </si>
-  <si>
-    <t>Pedido_25</t>
-  </si>
-  <si>
-    <t>Pedido_18</t>
-  </si>
-  <si>
-    <t>Pedido_55</t>
-  </si>
-  <si>
-    <t>Pedido_76</t>
-  </si>
-  <si>
-    <t>Pedido_14</t>
-  </si>
-  <si>
-    <t>Pedido_47</t>
-  </si>
-  <si>
-    <t>Pedido_51</t>
-  </si>
-  <si>
-    <t>Pedido_22</t>
-  </si>
-  <si>
-    <t>Pedido_40</t>
-  </si>
-  <si>
-    <t>Pedido_41</t>
-  </si>
-  <si>
-    <t>Pedido_67</t>
-  </si>
-  <si>
-    <t>Pedido_1</t>
-  </si>
-  <si>
-    <t>Pedido_44</t>
-  </si>
-  <si>
-    <t>Pedido_30</t>
-  </si>
-  <si>
-    <t>Pedido_48</t>
-  </si>
-  <si>
-    <t>Pedido_78</t>
-  </si>
-  <si>
-    <t>Pedido_80</t>
-  </si>
-  <si>
-    <t>Pedido_73</t>
-  </si>
-  <si>
-    <t>Pedido_61</t>
-  </si>
-  <si>
-    <t>Pedido_77</t>
-  </si>
-  <si>
-    <t>Pedido_75</t>
-  </si>
-  <si>
-    <t>Pedido_60</t>
-  </si>
-  <si>
-    <t>Pedido_79</t>
-  </si>
-  <si>
-    <t>Pedido_54</t>
-  </si>
-  <si>
-    <t>Pedido_70</t>
-  </si>
-  <si>
-    <t>Pedido_58</t>
-  </si>
-  <si>
-    <t>Pedido_38</t>
-  </si>
-  <si>
-    <t>Pedido_69</t>
-  </si>
-  <si>
-    <t>Pedido_62</t>
-  </si>
-  <si>
-    <t>Pedido_65</t>
-  </si>
-  <si>
-    <t>Pedido_50</t>
-  </si>
-  <si>
-    <t>Pedido_66</t>
-  </si>
-  <si>
-    <t>Pedido_42</t>
-  </si>
-  <si>
-    <t>Pedido_63</t>
-  </si>
-  <si>
-    <t>Pedido_68</t>
-  </si>
-  <si>
-    <t>Pedido_57</t>
-  </si>
-  <si>
-    <t>Pedido_16</t>
-  </si>
-  <si>
-    <t>Pedido_72</t>
-  </si>
-  <si>
-    <t>S021</t>
-  </si>
-  <si>
-    <t>S001</t>
-  </si>
-  <si>
-    <t>S041</t>
-  </si>
-  <si>
-    <t>S061</t>
-  </si>
-  <si>
-    <t>S071</t>
-  </si>
-  <si>
-    <t>S011</t>
-  </si>
-  <si>
-    <t>S031</t>
-  </si>
-  <si>
-    <t>S051</t>
-  </si>
-  <si>
-    <t>S062</t>
-  </si>
-  <si>
-    <t>S002</t>
-  </si>
-  <si>
-    <t>S042</t>
-  </si>
-  <si>
-    <t>S022</t>
-  </si>
-  <si>
-    <t>S072</t>
-  </si>
-  <si>
-    <t>S032</t>
-  </si>
-  <si>
-    <t>S052</t>
-  </si>
-  <si>
-    <t>S012</t>
-  </si>
-  <si>
-    <t>S063</t>
-  </si>
-  <si>
-    <t>S043</t>
-  </si>
-  <si>
-    <t>S023</t>
-  </si>
-  <si>
-    <t>S003</t>
-  </si>
-  <si>
-    <t>S073</t>
-  </si>
-  <si>
-    <t>S013</t>
-  </si>
-  <si>
-    <t>S053</t>
-  </si>
-  <si>
-    <t>S033</t>
-  </si>
-  <si>
-    <t>S064</t>
-  </si>
-  <si>
-    <t>S044</t>
-  </si>
-  <si>
-    <t>S004</t>
-  </si>
-  <si>
-    <t>S024</t>
-  </si>
-  <si>
-    <t>S074</t>
-  </si>
-  <si>
-    <t>S014</t>
-  </si>
-  <si>
-    <t>S034</t>
-  </si>
-  <si>
-    <t>S054</t>
-  </si>
-  <si>
-    <t>S065</t>
-  </si>
-  <si>
-    <t>S045</t>
-  </si>
-  <si>
-    <t>S005</t>
-  </si>
-  <si>
-    <t>S025</t>
-  </si>
-  <si>
-    <t>S075</t>
-  </si>
-  <si>
-    <t>S055</t>
-  </si>
-  <si>
-    <t>S035</t>
-  </si>
-  <si>
-    <t>S015</t>
-  </si>
-  <si>
-    <t>S066</t>
-  </si>
-  <si>
-    <t>S026</t>
-  </si>
-  <si>
-    <t>S006</t>
-  </si>
-  <si>
-    <t>S046</t>
-  </si>
-  <si>
-    <t>S016</t>
-  </si>
-  <si>
-    <t>S076</t>
-  </si>
-  <si>
-    <t>S036</t>
-  </si>
-  <si>
-    <t>S056</t>
-  </si>
-  <si>
-    <t>S007</t>
-  </si>
-  <si>
-    <t>S047</t>
-  </si>
-  <si>
-    <t>S027</t>
-  </si>
-  <si>
-    <t>S067</t>
-  </si>
-  <si>
-    <t>S077</t>
-  </si>
-  <si>
-    <t>S017</t>
-  </si>
-  <si>
-    <t>S037</t>
-  </si>
-  <si>
-    <t>S057</t>
-  </si>
-  <si>
-    <t>S048</t>
-  </si>
-  <si>
-    <t>S068</t>
-  </si>
-  <si>
-    <t>S028</t>
-  </si>
-  <si>
-    <t>S008</t>
-  </si>
-  <si>
-    <t>S058</t>
-  </si>
-  <si>
-    <t>S078</t>
-  </si>
-  <si>
-    <t>S038</t>
-  </si>
-  <si>
-    <t>S018</t>
-  </si>
-  <si>
-    <t>S009</t>
-  </si>
-  <si>
-    <t>S029</t>
-  </si>
-  <si>
-    <t>S069</t>
-  </si>
-  <si>
-    <t>S049</t>
-  </si>
-  <si>
-    <t>S019</t>
-  </si>
-  <si>
-    <t>S079</t>
-  </si>
-  <si>
-    <t>S059</t>
-  </si>
-  <si>
-    <t>S039</t>
-  </si>
-  <si>
-    <t>S050</t>
-  </si>
-  <si>
-    <t>S010</t>
-  </si>
-  <si>
-    <t>S030</t>
-  </si>
-  <si>
-    <t>S070</t>
-  </si>
-  <si>
-    <t>S060</t>
-  </si>
-  <si>
-    <t>S020</t>
-  </si>
-  <si>
-    <t>S080</t>
-  </si>
-  <si>
-    <t>S040</t>
-  </si>
-  <si>
-    <t>Tiempo</t>
-  </si>
-  <si>
-    <t>Z1</t>
-  </si>
-  <si>
-    <t>Z2</t>
-  </si>
-  <si>
-    <t>Z3</t>
   </si>
   <si>
     <t>373,5</t>
@@ -892,7 +892,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -920,7 +920,18 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
         <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -941,650 +952,650 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B12" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B13" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B14" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B16" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B17" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B18" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B19" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B20" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B21" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B22" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B23" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B24" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B25" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B26" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B27" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B28" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B29" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B30" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B31" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B32" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B33" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B34" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B35" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B36" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B37" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B38" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B39" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B40" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B41" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B42" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B43" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B44" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B45" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B46" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B47" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B48" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B49" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B50" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B51" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B52" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B53" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B54" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B55" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B56" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B57" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B58" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B59" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B60" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B61" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B62" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B63" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B64" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B65" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B66" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B67" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B68" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B69" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B70" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B71" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B72" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B73" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B74" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B75" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B76" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B77" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B78" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B79" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B80" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B81" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
   </sheetData>
@@ -1608,15 +1619,15 @@
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>169</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1629,18 +1640,18 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>171</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>172</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>171</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>172</v>
       </c>
     </row>
   </sheetData>

--- a/Reportes/Reporte_Data_80_Salidas_composición_zonas_homogéneas.xlsx_grasp.xlsx
+++ b/Reportes/Reporte_Data_80_Salidas_composición_zonas_homogéneas.xlsx_grasp.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="173">
   <si>
     <t>Instancia</t>
   </si>
@@ -30,508 +30,508 @@
     <t>Data_80_Salidas_composición_zonas_homogéneas.xlsx</t>
   </si>
   <si>
+    <t>Z4</t>
+  </si>
+  <si>
+    <t>373,7</t>
+  </si>
+  <si>
+    <t>Pedido</t>
+  </si>
+  <si>
+    <t>Salida</t>
+  </si>
+  <si>
+    <t>Pedido_3</t>
+  </si>
+  <si>
+    <t>Pedido_5</t>
+  </si>
+  <si>
+    <t>Pedido_34</t>
+  </si>
+  <si>
+    <t>Pedido_74</t>
+  </si>
+  <si>
+    <t>Pedido_20</t>
+  </si>
+  <si>
+    <t>Pedido_59</t>
+  </si>
+  <si>
+    <t>Pedido_26</t>
+  </si>
+  <si>
+    <t>Pedido_33</t>
+  </si>
+  <si>
+    <t>Pedido_12</t>
+  </si>
+  <si>
+    <t>Pedido_2</t>
+  </si>
+  <si>
+    <t>Pedido_10</t>
+  </si>
+  <si>
+    <t>Pedido_45</t>
+  </si>
+  <si>
+    <t>Pedido_13</t>
+  </si>
+  <si>
+    <t>Pedido_52</t>
+  </si>
+  <si>
+    <t>Pedido_37</t>
+  </si>
+  <si>
+    <t>Pedido_28</t>
+  </si>
+  <si>
+    <t>Pedido_64</t>
+  </si>
+  <si>
+    <t>Pedido_23</t>
+  </si>
+  <si>
+    <t>Pedido_11</t>
+  </si>
+  <si>
+    <t>Pedido_39</t>
+  </si>
+  <si>
+    <t>Pedido_71</t>
+  </si>
+  <si>
+    <t>Pedido_36</t>
+  </si>
+  <si>
+    <t>Pedido_43</t>
+  </si>
+  <si>
+    <t>Pedido_35</t>
+  </si>
+  <si>
+    <t>Pedido_4</t>
+  </si>
+  <si>
+    <t>Pedido_31</t>
+  </si>
+  <si>
+    <t>Pedido_32</t>
+  </si>
+  <si>
+    <t>Pedido_7</t>
+  </si>
+  <si>
+    <t>Pedido_56</t>
+  </si>
+  <si>
+    <t>Pedido_8</t>
+  </si>
+  <si>
+    <t>Pedido_29</t>
+  </si>
+  <si>
+    <t>Pedido_49</t>
+  </si>
+  <si>
+    <t>Pedido_15</t>
+  </si>
+  <si>
+    <t>Pedido_46</t>
+  </si>
+  <si>
+    <t>Pedido_21</t>
+  </si>
+  <si>
+    <t>Pedido_9</t>
+  </si>
+  <si>
+    <t>Pedido_6</t>
+  </si>
+  <si>
+    <t>Pedido_53</t>
+  </si>
+  <si>
+    <t>Pedido_24</t>
+  </si>
+  <si>
+    <t>Pedido_17</t>
+  </si>
+  <si>
+    <t>Pedido_19</t>
+  </si>
+  <si>
+    <t>Pedido_27</t>
+  </si>
+  <si>
+    <t>Pedido_25</t>
+  </si>
+  <si>
+    <t>Pedido_18</t>
+  </si>
+  <si>
+    <t>Pedido_55</t>
+  </si>
+  <si>
+    <t>Pedido_76</t>
+  </si>
+  <si>
+    <t>Pedido_14</t>
+  </si>
+  <si>
+    <t>Pedido_47</t>
+  </si>
+  <si>
+    <t>Pedido_51</t>
+  </si>
+  <si>
+    <t>Pedido_22</t>
+  </si>
+  <si>
+    <t>Pedido_40</t>
+  </si>
+  <si>
+    <t>Pedido_41</t>
+  </si>
+  <si>
+    <t>Pedido_67</t>
+  </si>
+  <si>
+    <t>Pedido_1</t>
+  </si>
+  <si>
+    <t>Pedido_44</t>
+  </si>
+  <si>
+    <t>Pedido_48</t>
+  </si>
+  <si>
+    <t>Pedido_30</t>
+  </si>
+  <si>
+    <t>Pedido_78</t>
+  </si>
+  <si>
+    <t>Pedido_80</t>
+  </si>
+  <si>
+    <t>Pedido_73</t>
+  </si>
+  <si>
+    <t>Pedido_61</t>
+  </si>
+  <si>
+    <t>Pedido_77</t>
+  </si>
+  <si>
+    <t>Pedido_75</t>
+  </si>
+  <si>
+    <t>Pedido_60</t>
+  </si>
+  <si>
+    <t>Pedido_79</t>
+  </si>
+  <si>
+    <t>Pedido_54</t>
+  </si>
+  <si>
+    <t>Pedido_70</t>
+  </si>
+  <si>
+    <t>Pedido_58</t>
+  </si>
+  <si>
+    <t>Pedido_38</t>
+  </si>
+  <si>
+    <t>Pedido_69</t>
+  </si>
+  <si>
+    <t>Pedido_62</t>
+  </si>
+  <si>
+    <t>Pedido_65</t>
+  </si>
+  <si>
+    <t>Pedido_50</t>
+  </si>
+  <si>
+    <t>Pedido_66</t>
+  </si>
+  <si>
+    <t>Pedido_42</t>
+  </si>
+  <si>
+    <t>Pedido_63</t>
+  </si>
+  <si>
+    <t>Pedido_68</t>
+  </si>
+  <si>
+    <t>Pedido_57</t>
+  </si>
+  <si>
+    <t>Pedido_16</t>
+  </si>
+  <si>
+    <t>Pedido_72</t>
+  </si>
+  <si>
+    <t>S021</t>
+  </si>
+  <si>
+    <t>S061</t>
+  </si>
+  <si>
+    <t>S041</t>
+  </si>
+  <si>
+    <t>S001</t>
+  </si>
+  <si>
+    <t>S011</t>
+  </si>
+  <si>
+    <t>S051</t>
+  </si>
+  <si>
+    <t>S031</t>
+  </si>
+  <si>
+    <t>S071</t>
+  </si>
+  <si>
+    <t>S002</t>
+  </si>
+  <si>
+    <t>S042</t>
+  </si>
+  <si>
+    <t>S022</t>
+  </si>
+  <si>
+    <t>S062</t>
+  </si>
+  <si>
+    <t>S012</t>
+  </si>
+  <si>
+    <t>S072</t>
+  </si>
+  <si>
+    <t>S032</t>
+  </si>
+  <si>
+    <t>S052</t>
+  </si>
+  <si>
+    <t>S003</t>
+  </si>
+  <si>
+    <t>S063</t>
+  </si>
+  <si>
+    <t>S023</t>
+  </si>
+  <si>
+    <t>S043</t>
+  </si>
+  <si>
+    <t>S013</t>
+  </si>
+  <si>
+    <t>S033</t>
+  </si>
+  <si>
+    <t>S053</t>
+  </si>
+  <si>
+    <t>S073</t>
+  </si>
+  <si>
+    <t>S004</t>
+  </si>
+  <si>
+    <t>S024</t>
+  </si>
+  <si>
+    <t>S064</t>
+  </si>
+  <si>
+    <t>S044</t>
+  </si>
+  <si>
+    <t>S014</t>
+  </si>
+  <si>
+    <t>S054</t>
+  </si>
+  <si>
+    <t>S074</t>
+  </si>
+  <si>
+    <t>S034</t>
+  </si>
+  <si>
+    <t>S005</t>
+  </si>
+  <si>
+    <t>S045</t>
+  </si>
+  <si>
+    <t>S065</t>
+  </si>
+  <si>
+    <t>S025</t>
+  </si>
+  <si>
+    <t>S015</t>
+  </si>
+  <si>
+    <t>S055</t>
+  </si>
+  <si>
+    <t>S075</t>
+  </si>
+  <si>
+    <t>S035</t>
+  </si>
+  <si>
+    <t>S046</t>
+  </si>
+  <si>
+    <t>S066</t>
+  </si>
+  <si>
+    <t>S006</t>
+  </si>
+  <si>
+    <t>S026</t>
+  </si>
+  <si>
+    <t>S056</t>
+  </si>
+  <si>
+    <t>S076</t>
+  </si>
+  <si>
+    <t>S016</t>
+  </si>
+  <si>
+    <t>S036</t>
+  </si>
+  <si>
+    <t>S067</t>
+  </si>
+  <si>
+    <t>S007</t>
+  </si>
+  <si>
+    <t>S047</t>
+  </si>
+  <si>
+    <t>S027</t>
+  </si>
+  <si>
+    <t>S017</t>
+  </si>
+  <si>
+    <t>S057</t>
+  </si>
+  <si>
+    <t>S037</t>
+  </si>
+  <si>
+    <t>S077</t>
+  </si>
+  <si>
+    <t>S068</t>
+  </si>
+  <si>
+    <t>S048</t>
+  </si>
+  <si>
+    <t>S028</t>
+  </si>
+  <si>
+    <t>S008</t>
+  </si>
+  <si>
+    <t>S078</t>
+  </si>
+  <si>
+    <t>S038</t>
+  </si>
+  <si>
+    <t>S018</t>
+  </si>
+  <si>
+    <t>S058</t>
+  </si>
+  <si>
+    <t>S049</t>
+  </si>
+  <si>
+    <t>S069</t>
+  </si>
+  <si>
+    <t>S029</t>
+  </si>
+  <si>
+    <t>S009</t>
+  </si>
+  <si>
+    <t>S079</t>
+  </si>
+  <si>
+    <t>S039</t>
+  </si>
+  <si>
+    <t>S059</t>
+  </si>
+  <si>
+    <t>S019</t>
+  </si>
+  <si>
+    <t>S050</t>
+  </si>
+  <si>
+    <t>S030</t>
+  </si>
+  <si>
+    <t>S010</t>
+  </si>
+  <si>
+    <t>S070</t>
+  </si>
+  <si>
+    <t>S080</t>
+  </si>
+  <si>
+    <t>S060</t>
+  </si>
+  <si>
+    <t>S020</t>
+  </si>
+  <si>
+    <t>S040</t>
+  </si>
+  <si>
+    <t>Tiempo</t>
+  </si>
+  <si>
     <t>Z1</t>
   </si>
   <si>
+    <t>Z2</t>
+  </si>
+  <si>
     <t>Z3</t>
-  </si>
-  <si>
-    <t>373,6</t>
-  </si>
-  <si>
-    <t>Pedido</t>
-  </si>
-  <si>
-    <t>Salida</t>
-  </si>
-  <si>
-    <t>Pedido_3</t>
-  </si>
-  <si>
-    <t>Pedido_5</t>
-  </si>
-  <si>
-    <t>Pedido_34</t>
-  </si>
-  <si>
-    <t>Pedido_74</t>
-  </si>
-  <si>
-    <t>Pedido_20</t>
-  </si>
-  <si>
-    <t>Pedido_59</t>
-  </si>
-  <si>
-    <t>Pedido_26</t>
-  </si>
-  <si>
-    <t>Pedido_33</t>
-  </si>
-  <si>
-    <t>Pedido_12</t>
-  </si>
-  <si>
-    <t>Pedido_2</t>
-  </si>
-  <si>
-    <t>Pedido_10</t>
-  </si>
-  <si>
-    <t>Pedido_45</t>
-  </si>
-  <si>
-    <t>Pedido_13</t>
-  </si>
-  <si>
-    <t>Pedido_52</t>
-  </si>
-  <si>
-    <t>Pedido_37</t>
-  </si>
-  <si>
-    <t>Pedido_28</t>
-  </si>
-  <si>
-    <t>Pedido_64</t>
-  </si>
-  <si>
-    <t>Pedido_23</t>
-  </si>
-  <si>
-    <t>Pedido_11</t>
-  </si>
-  <si>
-    <t>Pedido_39</t>
-  </si>
-  <si>
-    <t>Pedido_71</t>
-  </si>
-  <si>
-    <t>Pedido_36</t>
-  </si>
-  <si>
-    <t>Pedido_43</t>
-  </si>
-  <si>
-    <t>Pedido_35</t>
-  </si>
-  <si>
-    <t>Pedido_4</t>
-  </si>
-  <si>
-    <t>Pedido_31</t>
-  </si>
-  <si>
-    <t>Pedido_32</t>
-  </si>
-  <si>
-    <t>Pedido_7</t>
-  </si>
-  <si>
-    <t>Pedido_56</t>
-  </si>
-  <si>
-    <t>Pedido_8</t>
-  </si>
-  <si>
-    <t>Pedido_29</t>
-  </si>
-  <si>
-    <t>Pedido_49</t>
-  </si>
-  <si>
-    <t>Pedido_46</t>
-  </si>
-  <si>
-    <t>Pedido_15</t>
-  </si>
-  <si>
-    <t>Pedido_9</t>
-  </si>
-  <si>
-    <t>Pedido_21</t>
-  </si>
-  <si>
-    <t>Pedido_6</t>
-  </si>
-  <si>
-    <t>Pedido_53</t>
-  </si>
-  <si>
-    <t>Pedido_24</t>
-  </si>
-  <si>
-    <t>Pedido_17</t>
-  </si>
-  <si>
-    <t>Pedido_19</t>
-  </si>
-  <si>
-    <t>Pedido_27</t>
-  </si>
-  <si>
-    <t>Pedido_25</t>
-  </si>
-  <si>
-    <t>Pedido_18</t>
-  </si>
-  <si>
-    <t>Pedido_55</t>
-  </si>
-  <si>
-    <t>Pedido_76</t>
-  </si>
-  <si>
-    <t>Pedido_14</t>
-  </si>
-  <si>
-    <t>Pedido_47</t>
-  </si>
-  <si>
-    <t>Pedido_51</t>
-  </si>
-  <si>
-    <t>Pedido_22</t>
-  </si>
-  <si>
-    <t>Pedido_40</t>
-  </si>
-  <si>
-    <t>Pedido_41</t>
-  </si>
-  <si>
-    <t>Pedido_67</t>
-  </si>
-  <si>
-    <t>Pedido_1</t>
-  </si>
-  <si>
-    <t>Pedido_44</t>
-  </si>
-  <si>
-    <t>Pedido_48</t>
-  </si>
-  <si>
-    <t>Pedido_30</t>
-  </si>
-  <si>
-    <t>Pedido_78</t>
-  </si>
-  <si>
-    <t>Pedido_80</t>
-  </si>
-  <si>
-    <t>Pedido_73</t>
-  </si>
-  <si>
-    <t>Pedido_61</t>
-  </si>
-  <si>
-    <t>Pedido_77</t>
-  </si>
-  <si>
-    <t>Pedido_75</t>
-  </si>
-  <si>
-    <t>Pedido_60</t>
-  </si>
-  <si>
-    <t>Pedido_79</t>
-  </si>
-  <si>
-    <t>Pedido_54</t>
-  </si>
-  <si>
-    <t>Pedido_70</t>
-  </si>
-  <si>
-    <t>Pedido_58</t>
-  </si>
-  <si>
-    <t>Pedido_38</t>
-  </si>
-  <si>
-    <t>Pedido_69</t>
-  </si>
-  <si>
-    <t>Pedido_62</t>
-  </si>
-  <si>
-    <t>Pedido_65</t>
-  </si>
-  <si>
-    <t>Pedido_50</t>
-  </si>
-  <si>
-    <t>Pedido_66</t>
-  </si>
-  <si>
-    <t>Pedido_42</t>
-  </si>
-  <si>
-    <t>Pedido_63</t>
-  </si>
-  <si>
-    <t>Pedido_68</t>
-  </si>
-  <si>
-    <t>Pedido_57</t>
-  </si>
-  <si>
-    <t>Pedido_16</t>
-  </si>
-  <si>
-    <t>Pedido_72</t>
-  </si>
-  <si>
-    <t>S061</t>
-  </si>
-  <si>
-    <t>S041</t>
-  </si>
-  <si>
-    <t>S001</t>
-  </si>
-  <si>
-    <t>S021</t>
-  </si>
-  <si>
-    <t>S031</t>
-  </si>
-  <si>
-    <t>S011</t>
-  </si>
-  <si>
-    <t>S051</t>
-  </si>
-  <si>
-    <t>S071</t>
-  </si>
-  <si>
-    <t>S022</t>
-  </si>
-  <si>
-    <t>S062</t>
-  </si>
-  <si>
-    <t>S042</t>
-  </si>
-  <si>
-    <t>S002</t>
-  </si>
-  <si>
-    <t>S032</t>
-  </si>
-  <si>
-    <t>S052</t>
-  </si>
-  <si>
-    <t>S012</t>
-  </si>
-  <si>
-    <t>S072</t>
-  </si>
-  <si>
-    <t>S023</t>
-  </si>
-  <si>
-    <t>S003</t>
-  </si>
-  <si>
-    <t>S043</t>
-  </si>
-  <si>
-    <t>S063</t>
-  </si>
-  <si>
-    <t>S033</t>
-  </si>
-  <si>
-    <t>S073</t>
-  </si>
-  <si>
-    <t>S053</t>
-  </si>
-  <si>
-    <t>S013</t>
-  </si>
-  <si>
-    <t>S024</t>
-  </si>
-  <si>
-    <t>S004</t>
-  </si>
-  <si>
-    <t>S044</t>
-  </si>
-  <si>
-    <t>S064</t>
-  </si>
-  <si>
-    <t>S034</t>
-  </si>
-  <si>
-    <t>S074</t>
-  </si>
-  <si>
-    <t>S014</t>
-  </si>
-  <si>
-    <t>S054</t>
-  </si>
-  <si>
-    <t>S025</t>
-  </si>
-  <si>
-    <t>S065</t>
-  </si>
-  <si>
-    <t>S005</t>
-  </si>
-  <si>
-    <t>S045</t>
-  </si>
-  <si>
-    <t>S015</t>
-  </si>
-  <si>
-    <t>S075</t>
-  </si>
-  <si>
-    <t>S035</t>
-  </si>
-  <si>
-    <t>S055</t>
-  </si>
-  <si>
-    <t>S026</t>
-  </si>
-  <si>
-    <t>S006</t>
-  </si>
-  <si>
-    <t>S046</t>
-  </si>
-  <si>
-    <t>S066</t>
-  </si>
-  <si>
-    <t>S036</t>
-  </si>
-  <si>
-    <t>S076</t>
-  </si>
-  <si>
-    <t>S056</t>
-  </si>
-  <si>
-    <t>S016</t>
-  </si>
-  <si>
-    <t>S027</t>
-  </si>
-  <si>
-    <t>S047</t>
-  </si>
-  <si>
-    <t>S007</t>
-  </si>
-  <si>
-    <t>S067</t>
-  </si>
-  <si>
-    <t>S037</t>
-  </si>
-  <si>
-    <t>S017</t>
-  </si>
-  <si>
-    <t>S057</t>
-  </si>
-  <si>
-    <t>S077</t>
-  </si>
-  <si>
-    <t>S008</t>
-  </si>
-  <si>
-    <t>S068</t>
-  </si>
-  <si>
-    <t>S028</t>
-  </si>
-  <si>
-    <t>S048</t>
-  </si>
-  <si>
-    <t>S058</t>
-  </si>
-  <si>
-    <t>S018</t>
-  </si>
-  <si>
-    <t>S078</t>
-  </si>
-  <si>
-    <t>S038</t>
-  </si>
-  <si>
-    <t>S029</t>
-  </si>
-  <si>
-    <t>S069</t>
-  </si>
-  <si>
-    <t>S009</t>
-  </si>
-  <si>
-    <t>S049</t>
-  </si>
-  <si>
-    <t>S059</t>
-  </si>
-  <si>
-    <t>S019</t>
-  </si>
-  <si>
-    <t>S039</t>
-  </si>
-  <si>
-    <t>S079</t>
-  </si>
-  <si>
-    <t>S030</t>
-  </si>
-  <si>
-    <t>S050</t>
-  </si>
-  <si>
-    <t>S010</t>
-  </si>
-  <si>
-    <t>S070</t>
-  </si>
-  <si>
-    <t>S040</t>
-  </si>
-  <si>
-    <t>S060</t>
-  </si>
-  <si>
-    <t>S020</t>
-  </si>
-  <si>
-    <t>S080</t>
-  </si>
-  <si>
-    <t>Tiempo</t>
-  </si>
-  <si>
-    <t>Z2</t>
-  </si>
-  <si>
-    <t>Z4</t>
   </si>
   <si>
     <t>373,5</t>
@@ -892,7 +892,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -920,18 +920,7 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
         <v>5</v>
-      </c>
-      <c r="C3" t="s">
-        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -952,650 +941,650 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B11" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B13" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B15" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B18" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B19" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B20" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B21" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B22" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B23" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B24" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B25" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B26" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B27" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B28" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B29" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B30" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B31" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B32" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B33" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B34" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B35" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B36" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B37" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B38" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B39" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B40" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B41" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B42" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B43" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B44" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B45" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B46" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B47" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B48" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B49" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B50" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B51" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B52" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B53" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B54" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B55" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B56" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B57" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B58" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B59" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B60" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B61" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B62" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B63" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B64" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B65" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B66" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B67" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B68" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B69" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B70" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B71" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B72" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B73" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B74" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B75" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B76" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B77" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B78" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B79" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B80" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B81" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
   </sheetData>
@@ -1619,15 +1608,15 @@
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>169</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>172</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1640,18 +1629,18 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>171</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>172</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>171</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>172</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
